--- a/src/Shashlik.Utils.Test/HelperTests/test_template.xlsx
+++ b/src/Shashlik.Utils.Test/HelperTests/test_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhen-01\source\repos\shashlik\src\Shashlik.Utils.Test\HelperTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\shashlik\src\Shashlik.Utils.Test\HelperTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1EDE7C-E289-4215-9B37-5DB873F96FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD228E2C-69DE-4741-BDBE-C931F70AB350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1080" windowWidth="22605" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,23 +348,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
